--- a/صيدليات دكتور مصطفي طلعت_2026-01-06_10-58.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-06_10-58.xlsx
@@ -80,7 +80,7 @@
     <t>مناديل سولو سحب صغيره</t>
   </si>
   <si>
-    <t>17:0</t>
+    <t>16:0</t>
   </si>
   <si>
     <t>Tuesday, 6 January, 2026 10:58 AM</t>
@@ -887,16 +887,16 @@
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="M12" s="9"/>
       <c t="s" r="N12" s="7">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" ht="25.5" customHeight="1">
       <c r="K13" s="10">
-        <v>449.5</v>
+        <v>484.5</v>
       </c>
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
